--- a/biology/Médecine/1921_en_santé_et_médecine/1921_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1921_en_santé_et_médecine/1921_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1921_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1921_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1921 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1921_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1921_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,42 +523,44 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>France
-1er janvier : l'hôpital privé Bouville, à Berck, dans le Pas-de-Calais, est confié à l'Assistance publique et devient l'hôpital annexe de Berck, futur hôpital Lannelongue, détruit en 1944 sous les bombardements[1].
-21 juin : Bienaimé Jourdain, Albert Jugon et une quarantaine de soldats blessés au visage créent l'Union des blessés de la face, que son premier président, Yves Picot, surnomme les « gueules cassées »[2].
-13 juillet : loi française « accordant le droit d'exercer la médecine et l'art dentaire aux médecins et chirurgiens-dentistes alsaciens-lorrains […] réintégrés dans la nationalité française ou qui ont obtenu cette nationalité » (arrêté de promulgation du 29 mars 1922)[3].
+1er janvier : l'hôpital privé Bouville, à Berck, dans le Pas-de-Calais, est confié à l'Assistance publique et devient l'hôpital annexe de Berck, futur hôpital Lannelongue, détruit en 1944 sous les bombardements.
+21 juin : Bienaimé Jourdain, Albert Jugon et une quarantaine de soldats blessés au visage créent l'Union des blessés de la face, que son premier président, Yves Picot, surnomme les « gueules cassées ».
+13 juillet : loi française « accordant le droit d'exercer la médecine et l'art dentaire aux médecins et chirurgiens-dentistes alsaciens-lorrains […] réintégrés dans la nationalité française ou qui ont obtenu cette nationalité » (arrêté de promulgation du 29 mars 1922).
 18 juillet : les pédiatres Benjamin Weill-Hallé et Raymond Turpin inoculent à un nouveau-né le BCG, premier vaccin antituberculeux, mis au point par Albert Calmette et Camille Guérin.
-29 juillet : décret d'application de l'article 71 de la loi de finances du 30 avril 1921 « concernant l'attribution de congés de longue durée aux membres de l'enseignement public atteints de tuberculose ouverte ou de maladies mentales[4] ».
-Septembre : Le chimiste et pharmacologue Ernest Fourneau, de l'Institut Pasteur, publie sur un nouveau médicament antisyphilitique, le stovarsol, dont la découverte relance les recherches sur les composés arsenicaux pentavalents[5].
-3-5 octobre : le 30e congrès français de chirurgie se tient à Strasbourg sous la présidence de Jules Boeckel[6].
-Au cours de ce congrès, le chirurgien français Henri Albert Hartmann décrit l'opération qui porte aujourd'hui son nom, l'intervention de Hartmann (en), procédé de colectomie en deux étapes[7].
-Le psychiatre Gaétan de Clérambault présente la première description complète de l'érotomanie, ou syndrome de Clérambault, psychose construite sur la conviction délirante d'être aimé, généralement par quelqu'un de « prestigieux »[8],[9].
-Fondation à Paris de l'association Notre-Dame de Bon-Secours, chargée de la gestion de l'asile de Bon-Secours, devenu hôpital de Bon-Secours, puis maternité Notre-Dame de Bon-Secours, et enfin, par fusion, groupe hospitalier Paris Saint-Joseph[10].
-À Lyon, fusion de la Société de médecine et de la Société des sciences médicales[11].
-Création à Saint-Étienne de la Fédération nationale des mutilés du travail, qui a pris en 2004 le nom de FNATH : Association des accidentés de la vie[12],[13]
-Construction du bâtiment de la pharmacie Gros, à Clermont-Ferrand, édifié par l'architecte Louis Jarrier et décoré par les céramistes Gentil et Bourdet[14].
-Construction par l'architecte Patrice Bonnet, dans le jardin de l'institut d'hématologie de la faculté de médecine de Strasbourg, du pavillon animalier destiné à l'élevage des animaux de laboratoire[15].
+29 juillet : décret d'application de l'article 71 de la loi de finances du 30 avril 1921 « concernant l'attribution de congés de longue durée aux membres de l'enseignement public atteints de tuberculose ouverte ou de maladies mentales ».
+Septembre : Le chimiste et pharmacologue Ernest Fourneau, de l'Institut Pasteur, publie sur un nouveau médicament antisyphilitique, le stovarsol, dont la découverte relance les recherches sur les composés arsenicaux pentavalents.
+3-5 octobre : le 30e congrès français de chirurgie se tient à Strasbourg sous la présidence de Jules Boeckel.
+Au cours de ce congrès, le chirurgien français Henri Albert Hartmann décrit l'opération qui porte aujourd'hui son nom, l'intervention de Hartmann (en), procédé de colectomie en deux étapes.
+Le psychiatre Gaétan de Clérambault présente la première description complète de l'érotomanie, ou syndrome de Clérambault, psychose construite sur la conviction délirante d'être aimé, généralement par quelqu'un de « prestigieux »,.
+Fondation à Paris de l'association Notre-Dame de Bon-Secours, chargée de la gestion de l'asile de Bon-Secours, devenu hôpital de Bon-Secours, puis maternité Notre-Dame de Bon-Secours, et enfin, par fusion, groupe hospitalier Paris Saint-Joseph.
+À Lyon, fusion de la Société de médecine et de la Société des sciences médicales.
+Création à Saint-Étienne de la Fédération nationale des mutilés du travail, qui a pris en 2004 le nom de FNATH : Association des accidentés de la vie,
+Construction du bâtiment de la pharmacie Gros, à Clermont-Ferrand, édifié par l'architecte Louis Jarrier et décoré par les céramistes Gentil et Bourdet.
+Construction par l'architecte Patrice Bonnet, dans le jardin de l'institut d'hématologie de la faculté de médecine de Strasbourg, du pavillon animalier destiné à l'élevage des animaux de laboratoire.
 Europe
 30 mars-7 avril : la 10e conférence internationale de la Croix-Rouge se réunit à Genève.
-La conférence adopte une résolution « affirmant le droit de toutes les victimes de guerres civiles, de troubles sociaux ou révolutionnaires, à être secourues conformément aux principes de la Croix-Rouge[16] ».
-Le CICR commande à ses délégations de Narva et Stetin, Varsovie, Budapest et Constantinople quatre films humanitaires, sur le « Rapatriement des prisonniers de guerre », la « Lutte contre les épidémies », le « Secours aux enfants » et l'« Aide aux réfugiés »[17].
-1er avril : ordonnance monégasque réglementant l'exercice de la médecine[18].
-Mai-juin : deux années consécutives de sécheresse provoquent en Union soviétique la grande famine de 1921-1922 qui, en un an, fera plusieurs millions de morts[19].
+La conférence adopte une résolution « affirmant le droit de toutes les victimes de guerres civiles, de troubles sociaux ou révolutionnaires, à être secourues conformément aux principes de la Croix-Rouge ».
+Le CICR commande à ses délégations de Narva et Stetin, Varsovie, Budapest et Constantinople quatre films humanitaires, sur le « Rapatriement des prisonniers de guerre », la « Lutte contre les épidémies », le « Secours aux enfants » et l'« Aide aux réfugiés ».
+1er avril : ordonnance monégasque réglementant l'exercice de la médecine.
+Mai-juin : deux années consécutives de sécheresse provoquent en Union soviétique la grande famine de 1921-1922 qui, en un an, fera plusieurs millions de morts.
 Juillet : le premier congrès international de médecine et de pharmacie militaires se tient à Bruxelles.
 21 juillet : fondation du Comité permanent des congrès internationaux de médecine et de pharmacie militaires.
-1er-6 août : le 25e congrès des médecins aliénistes et neurologistes de France et des pays de langue française se tient à Luxembourg et à Metz[20].
-Novembre : fondation, par Albin Lambotte, de la Société royale belge de chirurgie orthopédique et de traumatologie[21].
-Aboutissement des découvertes de Thomas Elliott (en) en 1904[22] et de Henry Dale en 1914[23], le pharmacologue allemand Otto Loewi démontre la nature chimique de la transmission de l'influx nerveux au cœur[24],[25].
+1er-6 août : le 25e congrès des médecins aliénistes et neurologistes de France et des pays de langue française se tient à Luxembourg et à Metz.
+Novembre : fondation, par Albin Lambotte, de la Société royale belge de chirurgie orthopédique et de traumatologie.
+Aboutissement des découvertes de Thomas Elliott (en) en 1904 et de Henry Dale en 1914, le pharmacologue allemand Otto Loewi démontre la nature chimique de la transmission de l'influx nerveux au cœur,.
 Amérique du Nord
 27 juillet : dans un laboratoire de l'université de Toronto dirigé par John Macleod, le docteur Frederick Banting et son étudiant Charles Best ouvrent la voie au traitement du diabète en isolant de l'insuline dans le pancréas de fœtus de veaux.
 15 février : le chirurgien américain Evan O'Neill Kane pratique l'ablation de son propre appendice.
-4 mai-28 juin : voyage de Marie Curie aux États-Unis[26].
-20 mai : Marie Curie reçoit des mains du président américain la clé du coffret qui contient le gramme de radium pur nécessaire à la poursuite de ses recherches en radiothérapie, procuré par les donatrices du Marie Curie Radium Fund à l'initiative de la journaliste Mary Meloney[26].
-8 août : Henry Dunning, Truman Brophy and Frederick Moorehead (en) fondent la première association en Amérique du Nord de spécialistes de chirurgie plastique et esthétique, l'American Association of Oral Surgeons, devenue American Society of Plastic Surgeons (en) (ASPS)[27].
-Au Québec, une loi « établissant le service de l’assistance publique » donne aux pauvres l'accès aux soins dans les établissements hospitaliers[28].
-Création de la section québécoise de l'Association médicale canadienne[29].</t>
+4 mai-28 juin : voyage de Marie Curie aux États-Unis.
+20 mai : Marie Curie reçoit des mains du président américain la clé du coffret qui contient le gramme de radium pur nécessaire à la poursuite de ses recherches en radiothérapie, procuré par les donatrices du Marie Curie Radium Fund à l'initiative de la journaliste Mary Meloney.
+8 août : Henry Dunning, Truman Brophy and Frederick Moorehead (en) fondent la première association en Amérique du Nord de spécialistes de chirurgie plastique et esthétique, l'American Association of Oral Surgeons, devenue American Society of Plastic Surgeons (en) (ASPS).
+Au Québec, une loi « établissant le service de l’assistance publique » donne aux pauvres l'accès aux soins dans les établissements hospitaliers.
+Création de la section québécoise de l'Association médicale canadienne.</t>
         </is>
       </c>
     </row>
@@ -556,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1921_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1921_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,11 +588,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Aimé Fontaine et Albert-Marie Huguier, Nouveau dictionnaire vétérinaire[30].
-Marie Curie, La Radiologie et la Guerre[31].
-Ernest Fourneau, Préparation des médicaments organiques[32], « un très grand classique sur la matière, cité, utilisé, et traduit en espagnol dès sa parution, puis en anglais, en allemand et en russe[33] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aimé Fontaine et Albert-Marie Huguier, Nouveau dictionnaire vétérinaire.
+Marie Curie, La Radiologie et la Guerre.
+Ernest Fourneau, Préparation des médicaments organiques, « un très grand classique sur la matière, cité, utilisé, et traduit en espagnol dès sa parution, puis en anglais, en allemand et en russe ».</t>
         </is>
       </c>
     </row>
@@ -588,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1921_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1921_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,7 +622,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Janvier
 6 janvier : Marianne Grunberg-Manago (morte en 2013), biologiste française, lauréate du prix Nobel de médecine pour ses découvertes sur les mécanismes de l'hérédité.
@@ -684,7 +702,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1921_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1921_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -702,7 +720,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Janvier
 14 janvier : Jules Harmand (né en 1845), médecin, explorateur et diplomate français.
